--- a/DesignReports/SystemRefinement/Airframe/FMEA/figs/FMEA Template.xlsx
+++ b/DesignReports/SystemRefinement/Airframe/FMEA/figs/FMEA Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyspo\Box\Winter2019\Capstone\auvsi_documentation_2019\DesignReports\SubsystemEngineering\Airframe\FMEA\figs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kameroneves/Documents/School/School/AUVSI/auvsi_documentation_2019/DesignReports/SystemRefinement/Airframe/FMEA/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E45B8-3F98-4FC1-985A-F85C9C4381F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37049284-F04C-5F47-9066-B4F11EEA6E88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C2D87678-4539-DF41-9663-93A6919552CE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="13140" xr2:uid="{C2D87678-4539-DF41-9663-93A6919552CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="155">
   <si>
     <t>Component</t>
   </si>
@@ -495,7 +495,10 @@
     <t>Part poorly attached</t>
   </si>
   <si>
-    <t>Perform BPS range test</t>
+    <t>FFCL, and laboratory debugging</t>
+  </si>
+  <si>
+    <t>Laboratory debugging</t>
   </si>
 </sst>
 </file>
@@ -737,57 +740,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,18 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,60 +1192,60 @@
   </sheetPr>
   <dimension ref="B2:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="29.875" customWidth="1"/>
-    <col min="12" max="15" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="29.83203125" customWidth="1"/>
+    <col min="12" max="15" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:15" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="47" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1269,11 +1272,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="2:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1313,9 +1316,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="38"/>
+    <row r="5" spans="2:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="6" t="s">
         <v>64</v>
       </c>
@@ -1355,9 +1358,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="28"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
@@ -1397,11 +1400,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1443,9 +1446,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
@@ -1485,13 +1488,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1527,11 +1530,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="9" t="s">
         <v>145</v>
       </c>
@@ -1549,27 +1552,27 @@
         <v>288</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="L10" s="5">
         <v>8</v>
       </c>
       <c r="M10" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N10" s="5">
         <v>3</v>
       </c>
       <c r="O10" s="14">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="9" t="s">
         <v>146</v>
       </c>
@@ -1603,11 +1606,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1647,9 +1650,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="28"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="12" t="s">
         <v>65</v>
       </c>
@@ -1689,14 +1692,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1733,10 +1736,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="33"/>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="9" t="s">
         <v>66</v>
       </c>
@@ -1773,11 +1776,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1819,9 +1822,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="28"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
@@ -1861,11 +1864,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1905,13 +1908,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="32" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="33"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="41" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1945,11 +1948,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="9" t="s">
         <v>78</v>
       </c>
@@ -1981,11 +1984,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="9" t="s">
         <v>77</v>
       </c>
@@ -2017,9 +2020,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="31"/>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="9" t="s">
         <v>73</v>
       </c>
@@ -2057,11 +2060,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -2103,9 +2106,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="38"/>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="7" t="s">
         <v>74</v>
       </c>
@@ -2145,9 +2148,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="28"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="7" t="s">
         <v>73</v>
       </c>
@@ -2187,11 +2190,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2233,9 +2236,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="33"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
@@ -2265,19 +2268,19 @@
         <v>9</v>
       </c>
       <c r="M27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" s="5">
         <v>4</v>
       </c>
       <c r="O27" s="14">
         <f t="shared" ref="O27:O48" si="2">PRODUCT(L27:N27)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="9" t="s">
         <v>73</v>
       </c>
@@ -2315,17 +2318,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -2361,11 +2364,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="27"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="7" t="s">
         <v>81</v>
       </c>
@@ -2399,11 +2402,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="28"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>22</v>
       </c>
@@ -2483,11 +2486,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2529,9 +2532,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="38"/>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="27"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="7" t="s">
         <v>87</v>
       </c>
@@ -2571,9 +2574,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="38"/>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="27"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="7" t="s">
         <v>88</v>
       </c>
@@ -2613,9 +2616,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="39"/>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="28"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="7" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>83</v>
       </c>
@@ -2697,11 +2700,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="34" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2743,10 +2746,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="23" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="27"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="38" t="s">
         <v>97</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -2785,10 +2788,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="24"/>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="28"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="7" t="s">
         <v>66</v>
       </c>
@@ -2825,17 +2828,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="41" t="s">
         <v>66</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2871,11 +2874,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="33"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="9" t="s">
         <v>129</v>
       </c>
@@ -2909,13 +2912,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="32" t="s">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="33"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="41" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -2951,11 +2954,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="33"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="9" t="s">
         <v>125</v>
       </c>
@@ -2989,9 +2992,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="30"/>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="33"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="13" t="s">
         <v>72</v>
       </c>
@@ -3031,9 +3034,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="30"/>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="33"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="9" t="s">
         <v>73</v>
       </c>
@@ -3073,9 +3076,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="30"/>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="33"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="9" t="s">
         <v>103</v>
       </c>
@@ -3113,9 +3116,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="28"/>
-      <c r="C48" s="31"/>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="9" t="s">
         <v>102</v>
       </c>
@@ -3153,105 +3156,105 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="42"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="46"/>
+    </row>
+    <row r="50" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="45"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="49"/>
+    </row>
+    <row r="51" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="42"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="46"/>
+    </row>
+    <row r="52" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="45"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="34" t="s">
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="49"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="7" t="s">
@@ -3287,11 +3290,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="27"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="7" t="s">
         <v>106</v>
       </c>
@@ -3325,13 +3328,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="23" t="s">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="27"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -3367,11 +3370,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="27"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
       <c r="F56" s="7" t="s">
         <v>110</v>
       </c>
@@ -3405,11 +3408,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="35"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="27"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
       <c r="F57" s="7" t="s">
         <v>152</v>
       </c>
@@ -3443,11 +3446,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="36"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="28"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="7" t="s">
         <v>109</v>
       </c>
@@ -3481,11 +3484,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="26" t="s">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="35" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -3525,9 +3528,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="30"/>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="33"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="13" t="s">
         <v>73</v>
       </c>
@@ -3565,9 +3568,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="28"/>
-      <c r="C61" s="31"/>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="34"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="9" t="s">
         <v>72</v>
       </c>
@@ -3607,11 +3610,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="34" t="s">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -3651,9 +3654,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="35"/>
-      <c r="C63" s="38"/>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63" s="27"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="7" t="s">
         <v>73</v>
       </c>
@@ -3691,9 +3694,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="36"/>
-      <c r="C64" s="39"/>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="28"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="7" t="s">
         <v>72</v>
       </c>
@@ -3731,11 +3734,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="26" t="s">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -3761,7 +3764,7 @@
         <v>336</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L65" s="5">
         <v>6</v>
@@ -3777,9 +3780,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="30"/>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="33"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="9" t="s">
         <v>73</v>
       </c>
@@ -3817,9 +3820,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="28"/>
-      <c r="C67" s="31"/>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" s="34"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="9" t="s">
         <v>72</v>
       </c>
@@ -3857,11 +3860,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="34" t="s">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -3903,9 +3906,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="36"/>
-      <c r="C69" s="39"/>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="28"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7" t="s">
         <v>116</v>
       </c>
@@ -3943,11 +3946,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="26" t="s">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="35" t="s">
         <v>63</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -3987,9 +3990,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="30"/>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71" s="33"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="18" t="s">
         <v>123</v>
       </c>
@@ -4027,10 +4030,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="32" t="s">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="33"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="41" t="s">
         <v>119</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -4069,10 +4072,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="28"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="33"/>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="34"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="9" t="s">
         <v>66</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>127</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>139</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>142</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
         <v>143</v>
       </c>
@@ -4143,43 +4146,18 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="B41:B48"/>
     <mergeCell ref="C41:C48"/>
@@ -4194,20 +4172,45 @@
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D58"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="G53:G73 G4:G29 G30:G48">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThanOrEqual">

--- a/DesignReports/SystemRefinement/Airframe/FMEA/figs/FMEA Template.xlsx
+++ b/DesignReports/SystemRefinement/Airframe/FMEA/figs/FMEA Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kameroneves/Documents/School/School/AUVSI/auvsi_documentation_2019/DesignReports/SystemRefinement/Airframe/FMEA/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37049284-F04C-5F47-9066-B4F11EEA6E88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0FAB80-F664-4E48-A1E1-A0123A5A5209}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="13140" xr2:uid="{C2D87678-4539-DF41-9663-93A6919552CE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{C2D87678-4539-DF41-9663-93A6919552CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -740,6 +740,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,78 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,8 +1192,8 @@
   </sheetPr>
   <dimension ref="B2:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,47 +1205,48 @@
     <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="5.1640625" customWidth="1"/>
     <col min="11" max="11" width="29.83203125" customWidth="1"/>
-    <col min="12" max="15" width="4.33203125" customWidth="1"/>
+    <col min="12" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="23" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1259,7 @@
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1273,10 +1274,10 @@
       </c>
     </row>
     <row r="4" spans="2:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1317,8 +1318,8 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="27"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6" t="s">
         <v>64</v>
       </c>
@@ -1359,8 +1360,8 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
@@ -1401,10 +1402,10 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1447,8 +1448,8 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
@@ -1489,12 +1490,12 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1531,10 +1532,10 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="9" t="s">
         <v>145</v>
       </c>
@@ -1569,10 +1570,10 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="34"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="9" t="s">
         <v>146</v>
       </c>
@@ -1607,10 +1608,10 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1651,8 +1652,8 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="28"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="12" t="s">
         <v>65</v>
       </c>
@@ -1693,13 +1694,13 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="32" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1737,9 +1738,9 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="9" t="s">
         <v>66</v>
       </c>
@@ -1777,10 +1778,10 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1823,8 +1824,8 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="28"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
@@ -1865,10 +1866,10 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1909,12 +1910,12 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="41" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="32" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1949,10 +1950,10 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="33"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="9" t="s">
         <v>78</v>
       </c>
@@ -1985,10 +1986,10 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="33"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="9" t="s">
         <v>77</v>
       </c>
@@ -2021,8 +2022,8 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="34"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="9" t="s">
         <v>73</v>
       </c>
@@ -2061,10 +2062,10 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -2107,8 +2108,8 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7" t="s">
         <v>74</v>
       </c>
@@ -2149,8 +2150,8 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="28"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>73</v>
       </c>
@@ -2191,10 +2192,10 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2237,8 +2238,8 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="33"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
@@ -2279,8 +2280,8 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="9" t="s">
         <v>73</v>
       </c>
@@ -2319,16 +2320,16 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -2365,10 +2366,10 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="27"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="7" t="s">
         <v>81</v>
       </c>
@@ -2403,10 +2404,10 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
@@ -2487,10 +2488,10 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="36" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2533,8 +2534,8 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="27"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="7" t="s">
         <v>87</v>
       </c>
@@ -2575,8 +2576,8 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="7" t="s">
         <v>88</v>
       </c>
@@ -2617,8 +2618,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="28"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7" t="s">
         <v>73</v>
       </c>
@@ -2701,10 +2702,10 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2747,9 +2748,9 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="27"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="38" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -2789,9 +2790,9 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="28"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="40"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="7" t="s">
         <v>66</v>
       </c>
@@ -2829,16 +2830,16 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="32" t="s">
         <v>66</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2875,10 +2876,10 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="33"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="9" t="s">
         <v>129</v>
       </c>
@@ -2913,12 +2914,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="33"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="41" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="32" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -2955,10 +2956,10 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="33"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="9" t="s">
         <v>125</v>
       </c>
@@ -2993,8 +2994,8 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="33"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="13" t="s">
         <v>72</v>
       </c>
@@ -3035,8 +3036,8 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="33"/>
-      <c r="C46" s="36"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="9" t="s">
         <v>73</v>
       </c>
@@ -3077,8 +3078,8 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="33"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="9" t="s">
         <v>103</v>
       </c>
@@ -3117,8 +3118,8 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="34"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="9" t="s">
         <v>102</v>
       </c>
@@ -3163,20 +3164,20 @@
       <c r="C49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="46"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="42"/>
     </row>
     <row r="50" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
@@ -3185,20 +3186,20 @@
       <c r="C50" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="49"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="45"/>
     </row>
     <row r="51" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
@@ -3207,20 +3208,20 @@
       <c r="C51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="46"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="42"/>
     </row>
     <row r="52" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
@@ -3229,32 +3230,32 @@
       <c r="C52" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="49"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="45"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="7" t="s">
@@ -3291,10 +3292,10 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="27"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="7" t="s">
         <v>106</v>
       </c>
@@ -3329,12 +3330,12 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="27"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="38" t="s">
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -3371,10 +3372,10 @@
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="27"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="7" t="s">
         <v>110</v>
       </c>
@@ -3409,10 +3410,10 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="27"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="7" t="s">
         <v>152</v>
       </c>
@@ -3447,10 +3448,10 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="28"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="7" t="s">
         <v>109</v>
       </c>
@@ -3485,10 +3486,10 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -3529,8 +3530,8 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="33"/>
-      <c r="C60" s="36"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="13" t="s">
         <v>73</v>
       </c>
@@ -3569,8 +3570,8 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="34"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="9" t="s">
         <v>72</v>
       </c>
@@ -3611,10 +3612,10 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -3655,8 +3656,8 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="27"/>
-      <c r="C63" s="30"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="7" t="s">
         <v>73</v>
       </c>
@@ -3695,8 +3696,8 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="28"/>
-      <c r="C64" s="31"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="7" t="s">
         <v>72</v>
       </c>
@@ -3735,10 +3736,10 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -3781,8 +3782,8 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="33"/>
-      <c r="C66" s="36"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="9" t="s">
         <v>73</v>
       </c>
@@ -3821,8 +3822,8 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="34"/>
-      <c r="C67" s="37"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="9" t="s">
         <v>72</v>
       </c>
@@ -3861,10 +3862,10 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="36" t="s">
         <v>62</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -3907,8 +3908,8 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="28"/>
-      <c r="C69" s="31"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="7" t="s">
         <v>116</v>
       </c>
@@ -3947,10 +3948,10 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="29" t="s">
         <v>63</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -3991,8 +3992,8 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="33"/>
-      <c r="C71" s="36"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="18" t="s">
         <v>123</v>
       </c>
@@ -4031,9 +4032,9 @@
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="33"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="41" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="32" t="s">
         <v>119</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -4073,9 +4074,9 @@
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="34"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="43"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="9" t="s">
         <v>66</v>
       </c>
@@ -4146,18 +4147,43 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="B41:B48"/>
     <mergeCell ref="C41:C48"/>
@@ -4174,43 +4200,18 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="D55:D58"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
   </mergeCells>
   <conditionalFormatting sqref="G53:G73 G4:G29 G30:G48">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThanOrEqual">
